--- a/Data/Subject_500/session-1_Dichotic.xlsx
+++ b/Data/Subject_500/session-1_Dichotic.xlsx
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1633519552.552318</v>
+        <v>1637157811.278276</v>
       </c>
       <c r="G2" t="n">
-        <v>1633519554.065511</v>
+        <v>1637157812.65134</v>
       </c>
       <c r="H2" t="n">
-        <v>1213.6875</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -613,13 +613,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1633519554.069532</v>
+        <v>1637157812.654339</v>
       </c>
       <c r="G3" t="n">
-        <v>1633519556.113369</v>
+        <v>1637157814.424308</v>
       </c>
       <c r="H3" t="n">
-        <v>1744.458333333333</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1633519556.116376</v>
+        <v>1637157814.427312</v>
       </c>
       <c r="G4" t="n">
-        <v>1633519557.857097</v>
+        <v>1637157816.154408</v>
       </c>
       <c r="H4" t="n">
-        <v>1441.833333333333</v>
+        <v>1427.583333333333</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1633519557.860091</v>
+        <v>1637157816.158442</v>
       </c>
       <c r="G5" t="n">
-        <v>1633519559.799381</v>
+        <v>1637157817.465214</v>
       </c>
       <c r="H5" t="n">
-        <v>1639.895833333333</v>
+        <v>1007.708333333333</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1633519559.801386</v>
+        <v>1637157817.469221</v>
       </c>
       <c r="G6" t="n">
-        <v>1633519561.741331</v>
+        <v>1637157818.776869</v>
       </c>
       <c r="H6" t="n">
-        <v>1639.895833333333</v>
+        <v>1007.708333333333</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1633519561.744534</v>
+        <v>1637157818.801589</v>
       </c>
       <c r="G7" t="n">
-        <v>1633519563.431507</v>
+        <v>1637157820.385122</v>
       </c>
       <c r="H7" t="n">
-        <v>1387.958333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1633519563.43552</v>
+        <v>1637157820.388126</v>
       </c>
       <c r="G8" t="n">
-        <v>1633519565.278707</v>
+        <v>1637157821.971448</v>
       </c>
       <c r="H8" t="n">
-        <v>1543.25</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1033,13 +1033,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1633519565.281719</v>
+        <v>1637157821.974478</v>
       </c>
       <c r="G9" t="n">
-        <v>1633519567.124509</v>
+        <v>1637157823.557013</v>
       </c>
       <c r="H9" t="n">
-        <v>1543.25</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1633519567.127528</v>
+        <v>1637157823.561011</v>
       </c>
       <c r="G10" t="n">
-        <v>1633519569.009818</v>
+        <v>1637157825.472672</v>
       </c>
       <c r="H10" t="n">
-        <v>1582.854166666667</v>
+        <v>1612.9375</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1633519573.00022</v>
+        <v>1637157828.149054</v>
       </c>
       <c r="G11" t="n">
-        <v>1633519574.57217</v>
+        <v>1637157829.735369</v>
       </c>
       <c r="H11" t="n">
-        <v>1269.125</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1633519572.997204</v>
+        <v>1637157828.144054</v>
       </c>
       <c r="G12" t="n">
-        <v>1633519574.859622</v>
+        <v>1637157830.193172</v>
       </c>
       <c r="H12" t="n">
-        <v>1559.083333333333</v>
+        <v>1744.458333333333</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1313,13 +1313,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1633519574.57217</v>
+        <v>1637157829.735369</v>
       </c>
       <c r="G13" t="n">
-        <v>1633519576.120358</v>
+        <v>1637157831.677564</v>
       </c>
       <c r="H13" t="n">
-        <v>1246.958333333333</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1633519574.859622</v>
+        <v>1637157830.193172</v>
       </c>
       <c r="G14" t="n">
-        <v>1633519576.234626</v>
+        <v>1637157831.9238</v>
       </c>
       <c r="H14" t="n">
-        <v>1072.666666666667</v>
+        <v>1427.583333333333</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1633519576.234626</v>
+        <v>1637157831.677564</v>
       </c>
       <c r="G15" t="n">
-        <v>1633519577.610676</v>
+        <v>1637157833.53916</v>
       </c>
       <c r="H15" t="n">
-        <v>1072.666666666667</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1523,13 +1523,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1633519576.120358</v>
+        <v>1637157831.9238</v>
       </c>
       <c r="G16" t="n">
-        <v>1633519577.669554</v>
+        <v>1637157833.653415</v>
       </c>
       <c r="H16" t="n">
-        <v>1246.958333333333</v>
+        <v>1427.583333333333</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1593,13 +1593,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1633519577.669554</v>
+        <v>1637157833.540202</v>
       </c>
       <c r="G17" t="n">
-        <v>1633519579.337547</v>
+        <v>1637157835.402312</v>
       </c>
       <c r="H17" t="n">
-        <v>1365.791666666667</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1633519577.610676</v>
+        <v>1637157833.653415</v>
       </c>
       <c r="G18" t="n">
-        <v>1633519579.340799</v>
+        <v>1637157835.569557</v>
       </c>
       <c r="H18" t="n">
-        <v>1427.583333333333</v>
+        <v>1612.9375</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
@@ -1729,17 +1729,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1633519586.069223</v>
+        <v>1637157837.835959</v>
       </c>
       <c r="G19" t="n">
-        <v>1633519587.585037</v>
+        <v>1637157839.210421</v>
       </c>
       <c r="H19" t="n">
-        <v>1213.6875</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1799,17 +1799,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1633519586.072227</v>
+        <v>1637157837.832958</v>
       </c>
       <c r="G20" t="n">
-        <v>1633519587.93479</v>
+        <v>1637157839.418794</v>
       </c>
       <c r="H20" t="n">
-        <v>1559.083333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -1869,17 +1869,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1633519587.585037</v>
+        <v>1637157839.210421</v>
       </c>
       <c r="G21" t="n">
-        <v>1633519589.157305</v>
+        <v>1637157840.683044</v>
       </c>
       <c r="H21" t="n">
-        <v>1269.125</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -1939,17 +1939,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1633519587.93479</v>
+        <v>1637157839.418794</v>
       </c>
       <c r="G22" t="n">
-        <v>1633519589.407807</v>
+        <v>1637157841.303628</v>
       </c>
       <c r="H22" t="n">
-        <v>1170.916666666667</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2013,13 +2013,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1633519589.407807</v>
+        <v>1637157840.683044</v>
       </c>
       <c r="G23" t="n">
-        <v>1633519591.035402</v>
+        <v>1637157842.155736</v>
       </c>
       <c r="H23" t="n">
-        <v>1324.583333333333</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2083,13 +2083,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1633519589.157305</v>
+        <v>1637157841.303628</v>
       </c>
       <c r="G24" t="n">
-        <v>1633519591.072528</v>
+        <v>1637157842.81941</v>
       </c>
       <c r="H24" t="n">
-        <v>1612.9375</v>
+        <v>1213.6875</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1633519591.035402</v>
+        <v>1637157842.155736</v>
       </c>
       <c r="G25" t="n">
-        <v>1633519592.50791</v>
+        <v>1637157843.628265</v>
       </c>
       <c r="H25" t="n">
         <v>1170.916666666667</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2223,13 +2223,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1633519591.072528</v>
+        <v>1637157842.81941</v>
       </c>
       <c r="G26" t="n">
-        <v>1633519592.987498</v>
+        <v>1637157844.70525</v>
       </c>
       <c r="H26" t="n">
-        <v>1612.9375</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2293,13 +2293,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1633519592.50791</v>
+        <v>1637157843.628265</v>
       </c>
       <c r="G27" t="n">
-        <v>1633519593.897951</v>
+        <v>1637157845.170557</v>
       </c>
       <c r="H27" t="n">
-        <v>1086.916666666667</v>
+        <v>1239.020833333333</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1633519592.987498</v>
+        <v>1637157844.70525</v>
       </c>
       <c r="G28" t="n">
-        <v>1633519595.035568</v>
+        <v>1637157846.753288</v>
       </c>
       <c r="H28" t="n">
         <v>1744.458333333333</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -2433,13 +2433,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1633519593.897951</v>
+        <v>1637157845.170557</v>
       </c>
       <c r="G29" t="n">
-        <v>1633519595.287418</v>
+        <v>1637157846.944655</v>
       </c>
       <c r="H29" t="n">
-        <v>1086.916666666667</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2499,17 +2499,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1633519595.035568</v>
+        <v>1637157846.944655</v>
       </c>
       <c r="G30" t="n">
-        <v>1633519596.530556</v>
+        <v>1637157848.634958</v>
       </c>
       <c r="H30" t="n">
-        <v>1191.5</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="O30" t="b">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,17 +2569,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1633519595.287418</v>
+        <v>1637157846.753288</v>
       </c>
       <c r="G31" t="n">
-        <v>1633519597.202718</v>
+        <v>1637157848.802237</v>
       </c>
       <c r="H31" t="n">
-        <v>1612.9375</v>
+        <v>1744.458333333333</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2639,17 +2639,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1633519596.530556</v>
+        <v>1637157848.634958</v>
       </c>
       <c r="G32" t="n">
-        <v>1633519598.024631</v>
+        <v>1637157850.263585</v>
       </c>
       <c r="H32" t="n">
-        <v>1191.5</v>
+        <v>1324.583333333333</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2709,17 +2709,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1633519597.202718</v>
+        <v>1637157848.802237</v>
       </c>
       <c r="G33" t="n">
-        <v>1633519599.127553</v>
+        <v>1637157850.29618</v>
       </c>
       <c r="H33" t="n">
-        <v>1620.875</v>
+        <v>1191.5</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1633519598.024631</v>
+        <v>1637157850.29618</v>
       </c>
       <c r="G34" t="n">
-        <v>1633519599.573299</v>
+        <v>1637157852.158597</v>
       </c>
       <c r="H34" t="n">
-        <v>1246.958333333333</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2853,13 +2853,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1633519599.127553</v>
+        <v>1637157850.263585</v>
       </c>
       <c r="G35" t="n">
-        <v>1633519600.713494</v>
+        <v>1637157852.187886</v>
       </c>
       <c r="H35" t="n">
-        <v>1283.395833333333</v>
+        <v>1620.875</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2923,13 +2923,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1633519599.573299</v>
+        <v>1637157852.158597</v>
       </c>
       <c r="G36" t="n">
-        <v>1633519601.263602</v>
+        <v>1637157854.100977</v>
       </c>
       <c r="H36" t="n">
-        <v>1387.958333333333</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1633519600.713494</v>
+        <v>1637157852.187886</v>
       </c>
       <c r="G37" t="n">
-        <v>1633519602.29954</v>
+        <v>1637157854.111199</v>
       </c>
       <c r="H37" t="n">
-        <v>1283.395833333333</v>
+        <v>1620.875</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3059,17 +3059,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1633519601.263602</v>
+        <v>1637157854.111199</v>
       </c>
       <c r="G38" t="n">
-        <v>1633519602.574098</v>
+        <v>1637157856.025866</v>
       </c>
       <c r="H38" t="n">
-        <v>1007.708333333333</v>
+        <v>1612.9375</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,17 +3129,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1633519602.29954</v>
+        <v>1637157854.100977</v>
       </c>
       <c r="G39" t="n">
-        <v>1633519603.920101</v>
+        <v>1637157856.042313</v>
       </c>
       <c r="H39" t="n">
-        <v>1318.25</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3199,17 +3199,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1633519602.574098</v>
+        <v>1637157856.025866</v>
       </c>
       <c r="G40" t="n">
-        <v>1633519604.445572</v>
+        <v>1637157857.67194</v>
       </c>
       <c r="H40" t="n">
-        <v>1568.604166666667</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,17 +3269,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1633519603.920101</v>
+        <v>1637157856.042313</v>
       </c>
       <c r="G41" t="n">
-        <v>1633519605.953817</v>
+        <v>1637157857.904211</v>
       </c>
       <c r="H41" t="n">
-        <v>1731.791666666667</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3343,13 +3343,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1633519604.446577</v>
+        <v>1637157857.904211</v>
       </c>
       <c r="G42" t="n">
-        <v>1633519606.191001</v>
+        <v>1637157859.677627</v>
       </c>
       <c r="H42" t="n">
-        <v>1441.833333333333</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3409,17 +3409,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1633519607.191821</v>
+        <v>1637157860.681759</v>
       </c>
       <c r="G43" t="n">
-        <v>1633519608.763816</v>
+        <v>1637157862.595677</v>
       </c>
       <c r="H43" t="n">
-        <v>1269.125</v>
+        <v>1612.9375</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3479,17 +3479,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1633519607.194828</v>
+        <v>1637157860.678766</v>
       </c>
       <c r="G44" t="n">
-        <v>1633519609.117554</v>
+        <v>1637157862.620972</v>
       </c>
       <c r="H44" t="n">
-        <v>1620.875</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1633519608.763816</v>
+        <v>1637157862.620972</v>
       </c>
       <c r="G45" t="n">
-        <v>1633519610.289937</v>
+        <v>1637157863.996598</v>
       </c>
       <c r="H45" t="n">
-        <v>1223.1875</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1633519609.117554</v>
+        <v>1637157862.595677</v>
       </c>
       <c r="G46" t="n">
-        <v>1633519610.590817</v>
+        <v>1637157864.286411</v>
       </c>
       <c r="H46" t="n">
-        <v>1170.916666666667</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
@@ -3693,13 +3693,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1633519610.289937</v>
+        <v>1637157863.996598</v>
       </c>
       <c r="G47" t="n">
-        <v>1633519611.600387</v>
+        <v>1637157865.583978</v>
       </c>
       <c r="H47" t="n">
-        <v>1007.708333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
@@ -3763,13 +3763,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1633519610.590817</v>
+        <v>1637157864.286411</v>
       </c>
       <c r="G48" t="n">
-        <v>1633519612.177417</v>
+        <v>1637157865.725259</v>
       </c>
       <c r="H48" t="n">
-        <v>1283.395833333333</v>
+        <v>1136.041666666667</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1633519611.600387</v>
+        <v>1637157865.583978</v>
       </c>
       <c r="G49" t="n">
-        <v>1633519612.911377</v>
+        <v>1637157867.170543</v>
       </c>
       <c r="H49" t="n">
-        <v>1007.708333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1633519612.177417</v>
+        <v>1637157865.725259</v>
       </c>
       <c r="G50" t="n">
-        <v>1633519613.763586</v>
+        <v>1637157867.759177</v>
       </c>
       <c r="H50" t="n">
-        <v>1283.395833333333</v>
+        <v>1731.791666666667</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
@@ -3973,13 +3973,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1633519612.911377</v>
+        <v>1637157867.170543</v>
       </c>
       <c r="G51" t="n">
-        <v>1633519614.459969</v>
+        <v>1637157868.481477</v>
       </c>
       <c r="H51" t="n">
-        <v>1246.958333333333</v>
+        <v>1007.708333333333</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>
@@ -4043,13 +4043,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1633519613.763586</v>
+        <v>1637157867.759177</v>
       </c>
       <c r="G52" t="n">
-        <v>1633519615.289964</v>
+        <v>1637157869.682273</v>
       </c>
       <c r="H52" t="n">
-        <v>1223.1875</v>
+        <v>1620.875</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O52" t="b">
         <v>0</v>
@@ -4113,13 +4113,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1633519614.459969</v>
+        <v>1637157868.481477</v>
       </c>
       <c r="G53" t="n">
-        <v>1633519616.307274</v>
+        <v>1637157869.975816</v>
       </c>
       <c r="H53" t="n">
-        <v>1543.25</v>
+        <v>1191.5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O53" t="b">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1633519615.289964</v>
+        <v>1637157869.683279</v>
       </c>
       <c r="G54" t="n">
-        <v>1633519616.980621</v>
+        <v>1637157871.328784</v>
       </c>
       <c r="H54" t="n">
-        <v>1387.958333333333</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O54" t="b">
         <v>0</v>
@@ -4253,13 +4253,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1633519616.307274</v>
+        <v>1637157869.975816</v>
       </c>
       <c r="G55" t="n">
-        <v>1633519618.15284</v>
+        <v>1637157871.860903</v>
       </c>
       <c r="H55" t="n">
-        <v>1543.25</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O55" t="b">
         <v>0</v>
@@ -4323,13 +4323,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1633519616.980621</v>
+        <v>1637157871.328784</v>
       </c>
       <c r="G56" t="n">
-        <v>1633519619.01349</v>
+        <v>1637157872.381327</v>
       </c>
       <c r="H56" t="n">
-        <v>1731.791666666667</v>
+        <v>749.4375</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="O56" t="b">
         <v>0</v>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -4389,17 +4389,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1633519618.15284</v>
+        <v>1637157872.381327</v>
       </c>
       <c r="G57" t="n">
-        <v>1633519619.647827</v>
+        <v>1637157873.43395</v>
       </c>
       <c r="H57" t="n">
-        <v>1191.5</v>
+        <v>749.4375</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="O57" t="b">
         <v>0</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -4459,17 +4459,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1633519619.01349</v>
+        <v>1637157871.860903</v>
       </c>
       <c r="G58" t="n">
-        <v>1633519620.640981</v>
+        <v>1637157873.746101</v>
       </c>
       <c r="H58" t="n">
-        <v>1324.583333333333</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="O58" t="b">
         <v>0</v>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -4529,17 +4529,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1633519619.647827</v>
+        <v>1637157873.43395</v>
       </c>
       <c r="G59" t="n">
-        <v>1633519621.316535</v>
+        <v>1637157874.906866</v>
       </c>
       <c r="H59" t="n">
-        <v>1365.791666666667</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="O59" t="b">
         <v>0</v>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -4599,17 +4599,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1633519620.640981</v>
+        <v>1637157873.746101</v>
       </c>
       <c r="G60" t="n">
-        <v>1633519622.079505</v>
+        <v>1637157875.608553</v>
       </c>
       <c r="H60" t="n">
-        <v>1136.041666666667</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="O60" t="b">
         <v>0</v>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -4669,17 +4669,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1633519621.316535</v>
+        <v>1637157874.906866</v>
       </c>
       <c r="G61" t="n">
-        <v>1633519622.692561</v>
+        <v>1637157876.37939</v>
       </c>
       <c r="H61" t="n">
-        <v>1072.666666666667</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="O61" t="b">
         <v>0</v>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -4739,17 +4739,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1633519622.079505</v>
+        <v>1637157875.608553</v>
       </c>
       <c r="G62" t="n">
-        <v>1633519623.689928</v>
+        <v>1637157877.47073</v>
       </c>
       <c r="H62" t="n">
-        <v>1308.75</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="O62" t="b">
         <v>0</v>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -4809,17 +4809,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1633519622.692561</v>
+        <v>1637157876.37939</v>
       </c>
       <c r="G63" t="n">
-        <v>1633519624.437467</v>
+        <v>1637157877.85233</v>
       </c>
       <c r="H63" t="n">
-        <v>1441.833333333333</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="O63" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4883,13 +4883,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1633519623.689928</v>
+        <v>1637157877.85233</v>
       </c>
       <c r="G64" t="n">
-        <v>1633519625.301473</v>
+        <v>1637157879.227328</v>
       </c>
       <c r="H64" t="n">
-        <v>1308.75</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O64" t="b">
         <v>0</v>
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,13 +4953,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1633519624.437467</v>
+        <v>1637157877.47073</v>
       </c>
       <c r="G65" t="n">
-        <v>1633519626.300598</v>
+        <v>1637157879.229526</v>
       </c>
       <c r="H65" t="n">
-        <v>1559.083333333333</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="O65" t="b">
         <v>0</v>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -5019,17 +5019,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1633519625.301473</v>
+        <v>1637157879.229526</v>
       </c>
       <c r="G66" t="n">
-        <v>1633519626.947733</v>
+        <v>1637157881.247632</v>
       </c>
       <c r="H66" t="n">
-        <v>1343.604166666667</v>
+        <v>1714.354166666667</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="O66" t="b">
         <v>0</v>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -5093,13 +5093,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1633519627.948954</v>
+        <v>1637157882.249034</v>
       </c>
       <c r="G67" t="n">
-        <v>1633519629.617084</v>
+        <v>1637157883.624631</v>
       </c>
       <c r="H67" t="n">
-        <v>1365.791666666667</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="O67" t="b">
         <v>0</v>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -5163,13 +5163,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1633519627.951978</v>
+        <v>1637157882.252032</v>
       </c>
       <c r="G68" t="n">
-        <v>1633519629.874377</v>
+        <v>1637157883.766911</v>
       </c>
       <c r="H68" t="n">
-        <v>1620.875</v>
+        <v>1213.6875</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="O68" t="b">
         <v>0</v>
@@ -5229,17 +5229,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1633519629.617084</v>
+        <v>1637157883.766911</v>
       </c>
       <c r="G69" t="n">
-        <v>1633519630.927485</v>
+        <v>1637157885.47045</v>
       </c>
       <c r="H69" t="n">
-        <v>1007.708333333333</v>
+        <v>1400.625</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="O69" t="b">
         <v>0</v>
@@ -5299,17 +5299,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1633519629.874377</v>
+        <v>1637157883.624631</v>
       </c>
       <c r="G70" t="n">
-        <v>1633519631.789091</v>
+        <v>1637157885.509581</v>
       </c>
       <c r="H70" t="n">
-        <v>1612.9375</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="O70" t="b">
         <v>0</v>
@@ -5369,17 +5369,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1633519630.927485</v>
+        <v>1637157885.47045</v>
       </c>
       <c r="G71" t="n">
-        <v>1633519632.477494</v>
+        <v>1637157886.908683</v>
       </c>
       <c r="H71" t="n">
-        <v>1246.958333333333</v>
+        <v>1136.041666666667</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="O71" t="b">
         <v>0</v>
@@ -5439,17 +5439,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1633519631.789091</v>
+        <v>1637157885.509581</v>
       </c>
       <c r="G72" t="n">
-        <v>1633519633.491762</v>
+        <v>1637157887.372881</v>
       </c>
       <c r="H72" t="n">
-        <v>1400.625</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="O72" t="b">
         <v>0</v>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1633519632.477494</v>
+        <v>1637157886.908683</v>
       </c>
       <c r="G73" t="n">
-        <v>1633519634.027508</v>
+        <v>1637157888.348219</v>
       </c>
       <c r="H73" t="n">
-        <v>1246.958333333333</v>
+        <v>1136.041666666667</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="O73" t="b">
         <v>0</v>
@@ -5579,17 +5579,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1633519633.491762</v>
+        <v>1637157887.372881</v>
       </c>
       <c r="G74" t="n">
-        <v>1633519635.195282</v>
+        <v>1637157888.957987</v>
       </c>
       <c r="H74" t="n">
-        <v>1400.625</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="O74" t="b">
         <v>0</v>
@@ -5649,17 +5649,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1633519634.027508</v>
+        <v>1637157888.348219</v>
       </c>
       <c r="G75" t="n">
-        <v>1633519635.969267</v>
+        <v>1637157889.93515</v>
       </c>
       <c r="H75" t="n">
-        <v>1639.895833333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="O75" t="b">
         <v>0</v>
@@ -5719,17 +5719,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1633519635.195282</v>
+        <v>1637157888.957987</v>
       </c>
       <c r="G76" t="n">
-        <v>1633519636.807715</v>
+        <v>1637157890.484537</v>
       </c>
       <c r="H76" t="n">
-        <v>1308.75</v>
+        <v>1223.1875</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O76" t="b">
         <v>0</v>
@@ -5789,14 +5789,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1633519635.969267</v>
+        <v>1637157889.93515</v>
       </c>
       <c r="G77" t="n">
-        <v>1633519637.344111</v>
+        <v>1637157891.310226</v>
       </c>
       <c r="H77" t="n">
         <v>1072.666666666667</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="O77" t="b">
         <v>0</v>
@@ -5859,17 +5859,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1633519636.807715</v>
+        <v>1637157890.484537</v>
       </c>
       <c r="G78" t="n">
-        <v>1633519638.156044</v>
+        <v>1637157892.010841</v>
       </c>
       <c r="H78" t="n">
-        <v>1045.729166666667</v>
+        <v>1223.1875</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="O78" t="b">
         <v>0</v>
@@ -5929,17 +5929,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1633519637.344111</v>
+        <v>1637157891.310226</v>
       </c>
       <c r="G79" t="n">
-        <v>1633519639.089505</v>
+        <v>1637157893.243415</v>
       </c>
       <c r="H79" t="n">
-        <v>1441.833333333333</v>
+        <v>1630.395833333333</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="O79" t="b">
         <v>0</v>
@@ -5999,17 +5999,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1633519638.156044</v>
+        <v>1637157892.010841</v>
       </c>
       <c r="G80" t="n">
-        <v>1633519639.531118</v>
+        <v>1637157893.526469</v>
       </c>
       <c r="H80" t="n">
-        <v>1072.666666666667</v>
+        <v>1213.6875</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="O80" t="b">
         <v>0</v>
@@ -6069,17 +6069,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1633519639.089505</v>
+        <v>1637157893.243415</v>
       </c>
       <c r="G81" t="n">
-        <v>1633519640.835466</v>
+        <v>1637157894.889383</v>
       </c>
       <c r="H81" t="n">
-        <v>1441.833333333333</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="O81" t="b">
         <v>0</v>
@@ -6139,17 +6139,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1633519639.531118</v>
+        <v>1637157893.526469</v>
       </c>
       <c r="G82" t="n">
-        <v>1633519641.157966</v>
+        <v>1637157895.020615</v>
       </c>
       <c r="H82" t="n">
-        <v>1324.583333333333</v>
+        <v>1191.5</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="O82" t="b">
         <v>0</v>
@@ -6209,17 +6209,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1633519640.835466</v>
+        <v>1637157894.889383</v>
       </c>
       <c r="G83" t="n">
-        <v>1633519642.351336</v>
+        <v>1637157895.941451</v>
       </c>
       <c r="H83" t="n">
-        <v>1213.6875</v>
+        <v>749.4375</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="O83" t="b">
         <v>0</v>
@@ -6279,17 +6279,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1633519641.157966</v>
+        <v>1637157895.020615</v>
       </c>
       <c r="G84" t="n">
-        <v>1633519642.847711</v>
+        <v>1637157896.607632</v>
       </c>
       <c r="H84" t="n">
-        <v>1387.958333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="O84" t="b">
         <v>0</v>
@@ -6349,17 +6349,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1633519642.351336</v>
+        <v>1637157895.941451</v>
       </c>
       <c r="G85" t="n">
-        <v>1633519643.844563</v>
+        <v>1637157896.994196</v>
       </c>
       <c r="H85" t="n">
-        <v>1191.5</v>
+        <v>749.4375</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="O85" t="b">
         <v>0</v>
@@ -6419,17 +6419,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1633519642.847711</v>
+        <v>1637157896.607632</v>
       </c>
       <c r="G86" t="n">
-        <v>1633519644.49401</v>
+        <v>1637157898.491882</v>
       </c>
       <c r="H86" t="n">
-        <v>1343.604166666667</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="O86" t="b">
         <v>0</v>
@@ -6489,17 +6489,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1633519643.844563</v>
+        <v>1637157896.994196</v>
       </c>
       <c r="G87" t="n">
-        <v>1633519645.892671</v>
+        <v>1637157898.767423</v>
       </c>
       <c r="H87" t="n">
-        <v>1744.458333333333</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="O87" t="b">
         <v>0</v>
@@ -6559,17 +6559,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1633519644.49401</v>
+        <v>1637157898.491882</v>
       </c>
       <c r="G88" t="n">
-        <v>1633519646.139492</v>
+        <v>1637157900.377986</v>
       </c>
       <c r="H88" t="n">
-        <v>1343.604166666667</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="O88" t="b">
         <v>0</v>
@@ -6629,17 +6629,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1633519645.893697</v>
+        <v>1637157898.767423</v>
       </c>
       <c r="G89" t="n">
-        <v>1633519647.80898</v>
+        <v>1637157900.690471</v>
       </c>
       <c r="H89" t="n">
-        <v>1612.9375</v>
+        <v>1620.875</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="O89" t="b">
         <v>0</v>
@@ -6699,17 +6699,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1633519646.139492</v>
+        <v>1637157900.377986</v>
       </c>
       <c r="G90" t="n">
-        <v>1633519648.173911</v>
+        <v>1637157902.137092</v>
       </c>
       <c r="H90" t="n">
-        <v>1731.791666666667</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="O90" t="b">
         <v>0</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -6773,13 +6773,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1633519649.177988</v>
+        <v>1637157903.140202</v>
       </c>
       <c r="G91" t="n">
-        <v>1633519650.81548</v>
+        <v>1637157905.073449</v>
       </c>
       <c r="H91" t="n">
-        <v>1334.104166666667</v>
+        <v>1630.395833333333</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="O91" t="b">
         <v>0</v>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -6843,13 +6843,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1633519649.174987</v>
+        <v>1637157903.138203</v>
       </c>
       <c r="G92" t="n">
-        <v>1633519651.03777</v>
+        <v>1637157905.079749</v>
       </c>
       <c r="H92" t="n">
-        <v>1559.083333333333</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="O92" t="b">
         <v>0</v>
@@ -6909,14 +6909,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1633519650.81548</v>
+        <v>1637157905.079749</v>
       </c>
       <c r="G93" t="n">
-        <v>1633519652.341315</v>
+        <v>1637157906.604285</v>
       </c>
       <c r="H93" t="n">
         <v>1223.1875</v>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="O93" t="b">
         <v>0</v>
@@ -6979,17 +6979,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1633519651.03777</v>
+        <v>1637157905.073449</v>
       </c>
       <c r="G94" t="n">
-        <v>1633519652.952892</v>
+        <v>1637157906.718599</v>
       </c>
       <c r="H94" t="n">
-        <v>1612.9375</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="O94" t="b">
         <v>0</v>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -7053,13 +7053,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1633519652.341315</v>
+        <v>1637157906.718599</v>
       </c>
       <c r="G95" t="n">
-        <v>1633519653.715986</v>
+        <v>1637157908.305207</v>
       </c>
       <c r="H95" t="n">
-        <v>1072.666666666667</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="O95" t="b">
         <v>0</v>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -7123,13 +7123,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1633519652.952892</v>
+        <v>1637157906.605299</v>
       </c>
       <c r="G96" t="n">
-        <v>1633519654.468343</v>
+        <v>1637157908.363844</v>
       </c>
       <c r="H96" t="n">
-        <v>1213.6875</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O96" t="b">
         <v>0</v>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -7193,13 +7193,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1633519653.715986</v>
+        <v>1637157908.305207</v>
       </c>
       <c r="G97" t="n">
-        <v>1633519655.090098</v>
+        <v>1637157909.778614</v>
       </c>
       <c r="H97" t="n">
-        <v>1072.666666666667</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O97" t="b">
         <v>0</v>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -7263,13 +7263,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1633519654.468343</v>
+        <v>1637157908.363844</v>
       </c>
       <c r="G98" t="n">
-        <v>1633519655.984706</v>
+        <v>1637157910.12434</v>
       </c>
       <c r="H98" t="n">
-        <v>1213.6875</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O98" t="b">
         <v>0</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -7333,13 +7333,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1633519655.090098</v>
+        <v>1637157909.778614</v>
       </c>
       <c r="G99" t="n">
-        <v>1633519656.677588</v>
+        <v>1637157911.812698</v>
       </c>
       <c r="H99" t="n">
-        <v>1283.395833333333</v>
+        <v>1731.791666666667</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="O99" t="b">
         <v>0</v>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -7403,13 +7403,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1633519655.984706</v>
+        <v>1637157910.12434</v>
       </c>
       <c r="G100" t="n">
-        <v>1633519657.557371</v>
+        <v>1637157912.009394</v>
       </c>
       <c r="H100" t="n">
-        <v>1269.125</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O100" t="b">
         <v>0</v>
@@ -7469,17 +7469,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1633519656.677588</v>
+        <v>1637157912.009394</v>
       </c>
       <c r="G101" t="n">
-        <v>1633519658.066901</v>
+        <v>1637157913.38511</v>
       </c>
       <c r="H101" t="n">
-        <v>1086.916666666667</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="O101" t="b">
         <v>0</v>
@@ -7539,17 +7539,17 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1633519657.557371</v>
+        <v>1637157911.812698</v>
       </c>
       <c r="G102" t="n">
-        <v>1633519659.051755</v>
+        <v>1637157913.847443</v>
       </c>
       <c r="H102" t="n">
-        <v>1191.5</v>
+        <v>1731.791666666667</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="O102" t="b">
         <v>0</v>
@@ -7609,17 +7609,17 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1633519658.067905</v>
+        <v>1637157913.38511</v>
       </c>
       <c r="G103" t="n">
-        <v>1633519659.457377</v>
+        <v>1637157915.248081</v>
       </c>
       <c r="H103" t="n">
-        <v>1086.916666666667</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="O103" t="b">
         <v>0</v>
@@ -7679,17 +7679,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1633519659.051755</v>
+        <v>1637157913.847443</v>
       </c>
       <c r="G104" t="n">
-        <v>1633519660.898386</v>
+        <v>1637157915.460629</v>
       </c>
       <c r="H104" t="n">
-        <v>1543.25</v>
+        <v>1308.75</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="O104" t="b">
         <v>0</v>
@@ -7749,17 +7749,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1633519659.457377</v>
+        <v>1637157915.248081</v>
       </c>
       <c r="G105" t="n">
-        <v>1633519661.08546</v>
+        <v>1637157916.763476</v>
       </c>
       <c r="H105" t="n">
-        <v>1324.583333333333</v>
+        <v>1213.6875</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="O105" t="b">
         <v>0</v>
@@ -7819,17 +7819,17 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1633519660.898386</v>
+        <v>1637157915.460629</v>
       </c>
       <c r="G106" t="n">
-        <v>1633519662.588684</v>
+        <v>1637157917.07148</v>
       </c>
       <c r="H106" t="n">
-        <v>1387.958333333333</v>
+        <v>1308.75</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="O106" t="b">
         <v>0</v>
@@ -7889,17 +7889,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1633519661.08546</v>
+        <v>1637157916.763476</v>
       </c>
       <c r="G107" t="n">
-        <v>1633519662.78937</v>
+        <v>1637157918.454601</v>
       </c>
       <c r="H107" t="n">
-        <v>1400.625</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="O107" t="b">
         <v>0</v>
@@ -7946,11 +7946,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7963,13 +7963,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1633519662.78937</v>
+        <v>1637157917.07251</v>
       </c>
       <c r="G108" t="n">
-        <v>1633519664.137856</v>
+        <v>1637157918.510555</v>
       </c>
       <c r="H108" t="n">
-        <v>1045.729166666667</v>
+        <v>1136.041666666667</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O108" t="b">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8029,17 +8029,17 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1633519662.588684</v>
+        <v>1637157918.510555</v>
       </c>
       <c r="G109" t="n">
-        <v>1633519664.279333</v>
+        <v>1637157919.885186</v>
       </c>
       <c r="H109" t="n">
-        <v>1387.958333333333</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="O109" t="b">
         <v>0</v>
@@ -8090,7 +8090,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8099,17 +8099,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1633519664.137856</v>
+        <v>1637157918.454601</v>
       </c>
       <c r="G110" t="n">
-        <v>1633519666.172534</v>
+        <v>1637157920.14561</v>
       </c>
       <c r="H110" t="n">
-        <v>1731.791666666667</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="O110" t="b">
         <v>0</v>
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8169,17 +8169,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1633519664.279333</v>
+        <v>1637157919.885186</v>
       </c>
       <c r="G111" t="n">
-        <v>1633519666.326398</v>
+        <v>1637157921.800698</v>
       </c>
       <c r="H111" t="n">
-        <v>1744.458333333333</v>
+        <v>1612.9375</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="O111" t="b">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8239,17 +8239,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1633519666.172534</v>
+        <v>1637157920.14561</v>
       </c>
       <c r="G112" t="n">
-        <v>1633519668.035452</v>
+        <v>1637157921.876633</v>
       </c>
       <c r="H112" t="n">
-        <v>1559.083333333333</v>
+        <v>1427.583333333333</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="O112" t="b">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8309,17 +8309,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1633519666.326398</v>
+        <v>1637157921.800698</v>
       </c>
       <c r="G113" t="n">
-        <v>1633519668.374726</v>
+        <v>1637157923.428427</v>
       </c>
       <c r="H113" t="n">
-        <v>1744.458333333333</v>
+        <v>1324.583333333333</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="O113" t="b">
         <v>0</v>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -8383,13 +8383,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1633519668.374726</v>
+        <v>1637157921.876633</v>
       </c>
       <c r="G114" t="n">
-        <v>1633519669.92273</v>
+        <v>1637157923.462624</v>
       </c>
       <c r="H114" t="n">
-        <v>1246.958333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="O114" t="b">
         <v>0</v>
@@ -8449,17 +8449,17 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1633519701.972943</v>
+        <v>1637157957.638153</v>
       </c>
       <c r="G115" t="n">
-        <v>1633519703.640681</v>
+        <v>1637157959.223482</v>
       </c>
       <c r="H115" t="n">
-        <v>1365.791666666667</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>1</v>
       </c>
       <c r="N115" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="O115" t="b">
         <v>0</v>
@@ -8519,17 +8519,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1633519701.975955</v>
+        <v>1637157957.635153</v>
       </c>
       <c r="G116" t="n">
-        <v>1633519703.677923</v>
+        <v>1637157959.408061</v>
       </c>
       <c r="H116" t="n">
-        <v>1400.625</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="N116" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="O116" t="b">
         <v>0</v>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -8593,10 +8593,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1633519703.677923</v>
+        <v>1637157959.223482</v>
       </c>
       <c r="G117" t="n">
-        <v>1633519705.150625</v>
+        <v>1637157960.696888</v>
       </c>
       <c r="H117" t="n">
         <v>1170.916666666667</v>
@@ -8625,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="N117" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="O117" t="b">
         <v>0</v>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -8663,13 +8663,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1633519703.640681</v>
+        <v>1637157959.408061</v>
       </c>
       <c r="G118" t="n">
-        <v>1633519705.212859</v>
+        <v>1637157961.293312</v>
       </c>
       <c r="H118" t="n">
-        <v>1269.125</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="N118" t="n">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="O118" t="b">
         <v>0</v>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1633519705.150625</v>
+        <v>1637157960.696888</v>
       </c>
       <c r="G119" t="n">
-        <v>1633519706.777565</v>
+        <v>1637157962.170065</v>
       </c>
       <c r="H119" t="n">
-        <v>1324.583333333333</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="N119" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="O119" t="b">
         <v>0</v>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -8803,13 +8803,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1633519705.212859</v>
+        <v>1637157961.293312</v>
       </c>
       <c r="G120" t="n">
-        <v>1633519707.128331</v>
+        <v>1637157962.809251</v>
       </c>
       <c r="H120" t="n">
-        <v>1612.9375</v>
+        <v>1213.6875</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="N120" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O120" t="b">
         <v>0</v>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -8873,10 +8873,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1633519706.777565</v>
+        <v>1637157962.170065</v>
       </c>
       <c r="G121" t="n">
-        <v>1633519708.251241</v>
+        <v>1637157963.64249</v>
       </c>
       <c r="H121" t="n">
         <v>1170.916666666667</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="N121" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="O121" t="b">
         <v>0</v>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -8943,13 +8943,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1633519707.129343</v>
+        <v>1637157962.809251</v>
       </c>
       <c r="G122" t="n">
-        <v>1633519709.045438</v>
+        <v>1637157964.693329</v>
       </c>
       <c r="H122" t="n">
-        <v>1612.9375</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="N122" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="O122" t="b">
         <v>0</v>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -9013,13 +9013,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1633519708.251241</v>
+        <v>1637157963.64249</v>
       </c>
       <c r="G123" t="n">
-        <v>1633519709.641122</v>
+        <v>1637157965.184554</v>
       </c>
       <c r="H123" t="n">
-        <v>1086.916666666667</v>
+        <v>1239.020833333333</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="N123" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="O123" t="b">
         <v>0</v>
@@ -9070,7 +9070,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9079,17 +9079,17 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1633519709.641122</v>
+        <v>1637157964.693329</v>
       </c>
       <c r="G124" t="n">
-        <v>1633519711.030886</v>
+        <v>1637157966.741909</v>
       </c>
       <c r="H124" t="n">
-        <v>1086.916666666667</v>
+        <v>1744.458333333333</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="N124" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="O124" t="b">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9149,17 +9149,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1633519709.045438</v>
+        <v>1637157965.184554</v>
       </c>
       <c r="G125" t="n">
-        <v>1633519711.09327</v>
+        <v>1637157966.958256</v>
       </c>
       <c r="H125" t="n">
-        <v>1744.458333333333</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="N125" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="O125" t="b">
         <v>0</v>
@@ -9210,7 +9210,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9219,17 +9219,17 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1633519711.09327</v>
+        <v>1637157966.959261</v>
       </c>
       <c r="G126" t="n">
-        <v>1633519712.58746</v>
+        <v>1637157968.649851</v>
       </c>
       <c r="H126" t="n">
-        <v>1191.5</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="O126" t="b">
         <v>0</v>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9289,17 +9289,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1633519711.030886</v>
+        <v>1637157966.741909</v>
       </c>
       <c r="G127" t="n">
-        <v>1633519712.946462</v>
+        <v>1637157968.790424</v>
       </c>
       <c r="H127" t="n">
-        <v>1612.9375</v>
+        <v>1744.458333333333</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="N127" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="O127" t="b">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9359,17 +9359,17 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1633519712.58746</v>
+        <v>1637157968.649851</v>
       </c>
       <c r="G128" t="n">
-        <v>1633519714.082679</v>
+        <v>1637157970.277726</v>
       </c>
       <c r="H128" t="n">
-        <v>1191.5</v>
+        <v>1324.583333333333</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="O128" t="b">
         <v>0</v>
@@ -9420,7 +9420,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9429,17 +9429,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1633519712.946462</v>
+        <v>1637157968.790424</v>
       </c>
       <c r="G129" t="n">
-        <v>1633519714.86905</v>
+        <v>1637157970.285374</v>
       </c>
       <c r="H129" t="n">
-        <v>1620.875</v>
+        <v>1191.5</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="O129" t="b">
         <v>0</v>
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -9503,13 +9503,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1633519714.082679</v>
+        <v>1637157970.285374</v>
       </c>
       <c r="G130" t="n">
-        <v>1633519715.631174</v>
+        <v>1637157972.14719</v>
       </c>
       <c r="H130" t="n">
-        <v>1246.958333333333</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="N130" t="n">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="O130" t="b">
         <v>0</v>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -9573,13 +9573,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1633519714.86905</v>
+        <v>1637157970.277726</v>
       </c>
       <c r="G131" t="n">
-        <v>1633519716.456477</v>
+        <v>1637157972.20095</v>
       </c>
       <c r="H131" t="n">
-        <v>1283.395833333333</v>
+        <v>1620.875</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="N131" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="O131" t="b">
         <v>0</v>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -9643,13 +9643,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1633519715.631174</v>
+        <v>1637157972.14719</v>
       </c>
       <c r="G132" t="n">
-        <v>1633519717.32099</v>
+        <v>1637157974.089122</v>
       </c>
       <c r="H132" t="n">
-        <v>1387.958333333333</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="N132" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="O132" t="b">
         <v>0</v>
@@ -9696,7 +9696,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -9713,13 +9713,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1633519716.456477</v>
+        <v>1637157972.20095</v>
       </c>
       <c r="G133" t="n">
-        <v>1633519718.043159</v>
+        <v>1637157974.124416</v>
       </c>
       <c r="H133" t="n">
-        <v>1283.395833333333</v>
+        <v>1620.875</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>1</v>
       </c>
       <c r="N133" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="O133" t="b">
         <v>0</v>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -9783,13 +9783,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1633519717.32099</v>
+        <v>1637157974.089122</v>
       </c>
       <c r="G134" t="n">
-        <v>1633519718.631275</v>
+        <v>1637157976.030946</v>
       </c>
       <c r="H134" t="n">
-        <v>1007.708333333333</v>
+        <v>1639.895833333333</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="N134" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O134" t="b">
         <v>0</v>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -9853,13 +9853,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1633519718.043159</v>
+        <v>1637157974.124416</v>
       </c>
       <c r="G135" t="n">
-        <v>1633519719.663099</v>
+        <v>1637157976.039223</v>
       </c>
       <c r="H135" t="n">
-        <v>1318.25</v>
+        <v>1612.9375</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="N135" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="O135" t="b">
         <v>0</v>
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9919,17 +9919,17 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1633519718.632287</v>
+        <v>1637157976.040236</v>
       </c>
       <c r="G136" t="n">
-        <v>1633519720.503415</v>
+        <v>1637157977.685964</v>
       </c>
       <c r="H136" t="n">
-        <v>1568.604166666667</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>1</v>
       </c>
       <c r="N136" t="n">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="O136" t="b">
         <v>0</v>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9989,17 +9989,17 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1633519719.664118</v>
+        <v>1637157976.030946</v>
       </c>
       <c r="G137" t="n">
-        <v>1633519721.696973</v>
+        <v>1637157977.893182</v>
       </c>
       <c r="H137" t="n">
-        <v>1731.791666666667</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="N137" t="n">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="O137" t="b">
         <v>0</v>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -10063,13 +10063,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1633519720.503415</v>
+        <v>1637157977.893182</v>
       </c>
       <c r="G138" t="n">
-        <v>1633519722.248701</v>
+        <v>1637157979.666314</v>
       </c>
       <c r="H138" t="n">
-        <v>1441.833333333333</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>1</v>
       </c>
       <c r="N138" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O138" t="b">
         <v>0</v>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -10133,13 +10133,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1633519723.250108</v>
+        <v>1637157980.667183</v>
       </c>
       <c r="G139" t="n">
-        <v>1633519724.743452</v>
+        <v>1637157981.978509</v>
       </c>
       <c r="H139" t="n">
-        <v>1191.5</v>
+        <v>1007.708333333333</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="N139" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="O139" t="b">
         <v>0</v>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -10203,13 +10203,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1633519723.252109</v>
+        <v>1637157980.671181</v>
       </c>
       <c r="G140" t="n">
-        <v>1633519724.888895</v>
+        <v>1637157982.256831</v>
       </c>
       <c r="H140" t="n">
-        <v>1334.104166666667</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="N140" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="O140" t="b">
         <v>0</v>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -10273,13 +10273,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1633519724.743452</v>
+        <v>1637157981.978509</v>
       </c>
       <c r="G141" t="n">
-        <v>1633519726.269096</v>
+        <v>1637157983.353448</v>
       </c>
       <c r="H141" t="n">
-        <v>1223.1875</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="N141" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="O141" t="b">
         <v>0</v>
@@ -10326,7 +10326,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -10343,13 +10343,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1633519724.888895</v>
+        <v>1637157982.256831</v>
       </c>
       <c r="G142" t="n">
-        <v>1633519726.361517</v>
+        <v>1637157983.947222</v>
       </c>
       <c r="H142" t="n">
-        <v>1170.916666666667</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="N142" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="O142" t="b">
         <v>0</v>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -10413,13 +10413,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1633519726.269096</v>
+        <v>1637157983.353448</v>
       </c>
       <c r="G143" t="n">
-        <v>1633519727.579416</v>
+        <v>1637157984.940891</v>
       </c>
       <c r="H143" t="n">
-        <v>1007.708333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="N143" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O143" t="b">
         <v>0</v>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -10483,13 +10483,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1633519726.361517</v>
+        <v>1637157983.947222</v>
       </c>
       <c r="G144" t="n">
-        <v>1633519727.947614</v>
+        <v>1637157985.386007</v>
       </c>
       <c r="H144" t="n">
-        <v>1283.395833333333</v>
+        <v>1136.041666666667</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="N144" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="O144" t="b">
         <v>0</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -10553,13 +10553,13 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1633519727.579416</v>
+        <v>1637157984.940891</v>
       </c>
       <c r="G145" t="n">
-        <v>1633519728.890599</v>
+        <v>1637157986.527512</v>
       </c>
       <c r="H145" t="n">
-        <v>1007.708333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="N145" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O145" t="b">
         <v>0</v>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -10623,13 +10623,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1633519727.947614</v>
+        <v>1637157985.386007</v>
       </c>
       <c r="G146" t="n">
-        <v>1633519729.534344</v>
+        <v>1637157987.419757</v>
       </c>
       <c r="H146" t="n">
-        <v>1283.395833333333</v>
+        <v>1731.791666666667</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="N146" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="O146" t="b">
         <v>0</v>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -10693,13 +10693,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1633519728.890599</v>
+        <v>1637157986.527512</v>
       </c>
       <c r="G147" t="n">
-        <v>1633519730.439954</v>
+        <v>1637157987.83758</v>
       </c>
       <c r="H147" t="n">
-        <v>1246.958333333333</v>
+        <v>1007.708333333333</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="N147" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O147" t="b">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10759,17 +10759,17 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1633519729.534344</v>
+        <v>1637157987.83758</v>
       </c>
       <c r="G148" t="n">
-        <v>1633519731.061312</v>
+        <v>1637157989.33284</v>
       </c>
       <c r="H148" t="n">
-        <v>1223.1875</v>
+        <v>1191.5</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="N148" t="n">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="O148" t="b">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10829,17 +10829,17 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1633519730.439954</v>
+        <v>1637157987.419757</v>
       </c>
       <c r="G149" t="n">
-        <v>1633519732.286395</v>
+        <v>1637157989.343126</v>
       </c>
       <c r="H149" t="n">
-        <v>1543.25</v>
+        <v>1620.875</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="N149" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="O149" t="b">
         <v>0</v>
@@ -10886,7 +10886,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -10903,13 +10903,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1633519731.061312</v>
+        <v>1637157989.343126</v>
       </c>
       <c r="G150" t="n">
-        <v>1633519732.751276</v>
+        <v>1637157990.988929</v>
       </c>
       <c r="H150" t="n">
-        <v>1387.958333333333</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="N150" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O150" t="b">
         <v>0</v>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -10973,13 +10973,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1633519732.286395</v>
+        <v>1637157989.33284</v>
       </c>
       <c r="G151" t="n">
-        <v>1633519734.132391</v>
+        <v>1637157991.216762</v>
       </c>
       <c r="H151" t="n">
-        <v>1543.25</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="N151" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O151" t="b">
         <v>0</v>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -11043,13 +11043,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1633519732.751276</v>
+        <v>1637157990.988929</v>
       </c>
       <c r="G152" t="n">
-        <v>1633519734.785383</v>
+        <v>1637157992.039878</v>
       </c>
       <c r="H152" t="n">
-        <v>1731.791666666667</v>
+        <v>749.4375</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="N152" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="O152" t="b">
         <v>0</v>
@@ -11109,17 +11109,17 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1633519734.132391</v>
+        <v>1637157992.039878</v>
       </c>
       <c r="G153" t="n">
-        <v>1633519735.627876</v>
+        <v>1637157993.092055</v>
       </c>
       <c r="H153" t="n">
-        <v>1191.5</v>
+        <v>749.4375</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>1</v>
       </c>
       <c r="N153" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="O153" t="b">
         <v>0</v>
@@ -11179,17 +11179,17 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1633519734.785383</v>
+        <v>1637157991.216762</v>
       </c>
       <c r="G154" t="n">
-        <v>1633519736.412272</v>
+        <v>1637157993.102314</v>
       </c>
       <c r="H154" t="n">
-        <v>1324.583333333333</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>1</v>
       </c>
       <c r="N154" t="n">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="O154" t="b">
         <v>0</v>
@@ -11249,17 +11249,17 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1633519735.627876</v>
+        <v>1637157993.092055</v>
       </c>
       <c r="G155" t="n">
-        <v>1633519737.295319</v>
+        <v>1637157994.564742</v>
       </c>
       <c r="H155" t="n">
-        <v>1365.791666666667</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>1</v>
       </c>
       <c r="N155" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="O155" t="b">
         <v>0</v>
@@ -11319,17 +11319,17 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1633519736.412272</v>
+        <v>1637157993.102314</v>
       </c>
       <c r="G156" t="n">
-        <v>1633519737.851166</v>
+        <v>1637157994.964602</v>
       </c>
       <c r="H156" t="n">
-        <v>1136.041666666667</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="N156" t="n">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="O156" t="b">
         <v>0</v>
@@ -11389,17 +11389,17 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1633519737.295319</v>
+        <v>1637157994.564742</v>
       </c>
       <c r="G157" t="n">
-        <v>1633519738.67049</v>
+        <v>1637157996.037934</v>
       </c>
       <c r="H157" t="n">
-        <v>1072.666666666667</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>1</v>
       </c>
       <c r="N157" t="n">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="O157" t="b">
         <v>0</v>
@@ -11459,17 +11459,17 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1633519737.851166</v>
+        <v>1637157994.964602</v>
       </c>
       <c r="G158" t="n">
-        <v>1633519739.462737</v>
+        <v>1637157996.827074</v>
       </c>
       <c r="H158" t="n">
-        <v>1308.75</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="N158" t="n">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="O158" t="b">
         <v>0</v>
@@ -11529,17 +11529,17 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1633519738.67049</v>
+        <v>1637157996.037934</v>
       </c>
       <c r="G159" t="n">
-        <v>1633519740.415328</v>
+        <v>1637157997.510189</v>
       </c>
       <c r="H159" t="n">
-        <v>1441.833333333333</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="N159" t="n">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="O159" t="b">
         <v>0</v>
@@ -11599,17 +11599,17 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1633519739.462737</v>
+        <v>1637157996.827074</v>
       </c>
       <c r="G160" t="n">
-        <v>1633519741.0753</v>
+        <v>1637157998.585238</v>
       </c>
       <c r="H160" t="n">
-        <v>1308.75</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>1</v>
       </c>
       <c r="N160" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="O160" t="b">
         <v>0</v>
@@ -11669,17 +11669,17 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1633519740.415328</v>
+        <v>1637157997.510189</v>
       </c>
       <c r="G161" t="n">
-        <v>1633519742.278019</v>
+        <v>1637157998.884724</v>
       </c>
       <c r="H161" t="n">
-        <v>1559.083333333333</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>1</v>
       </c>
       <c r="N161" t="n">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="O161" t="b">
         <v>0</v>
@@ -11739,17 +11739,17 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1633519741.0753</v>
+        <v>1637157998.585238</v>
       </c>
       <c r="G162" t="n">
-        <v>1633519742.720555</v>
+        <v>1637158000.603323</v>
       </c>
       <c r="H162" t="n">
-        <v>1343.604166666667</v>
+        <v>1714.354166666667</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>1</v>
       </c>
       <c r="N162" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="O162" t="b">
         <v>0</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -11813,13 +11813,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1633519743.721653</v>
+        <v>1637158001.604773</v>
       </c>
       <c r="G163" t="n">
-        <v>1633519745.389996</v>
+        <v>1637158003.099476</v>
       </c>
       <c r="H163" t="n">
-        <v>1365.791666666667</v>
+        <v>1191.5</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="N163" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="O163" t="b">
         <v>0</v>
@@ -11866,7 +11866,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -11883,13 +11883,13 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1633519743.724642</v>
+        <v>1637158001.607768</v>
       </c>
       <c r="G164" t="n">
-        <v>1633519745.638644</v>
+        <v>1637158003.244768</v>
       </c>
       <c r="H164" t="n">
-        <v>1612.9375</v>
+        <v>1334.104166666667</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="N164" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="O164" t="b">
         <v>0</v>
@@ -11949,17 +11949,17 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1633519745.389996</v>
+        <v>1637158003.244768</v>
       </c>
       <c r="G165" t="n">
-        <v>1633519746.699641</v>
+        <v>1637158004.947736</v>
       </c>
       <c r="H165" t="n">
-        <v>1007.708333333333</v>
+        <v>1400.625</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="N165" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="O165" t="b">
         <v>0</v>
@@ -12019,17 +12019,17 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1633519745.638644</v>
+        <v>1637158003.099476</v>
       </c>
       <c r="G166" t="n">
-        <v>1633519747.553523</v>
+        <v>1637158004.985004</v>
       </c>
       <c r="H166" t="n">
-        <v>1612.9375</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="N166" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="O166" t="b">
         <v>0</v>
@@ -12089,17 +12089,17 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1633519746.699641</v>
+        <v>1637158004.947736</v>
       </c>
       <c r="G167" t="n">
-        <v>1633519748.248814</v>
+        <v>1637158006.387015</v>
       </c>
       <c r="H167" t="n">
-        <v>1246.958333333333</v>
+        <v>1136.041666666667</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>1</v>
       </c>
       <c r="N167" t="n">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="O167" t="b">
         <v>0</v>
@@ -12159,17 +12159,17 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1633519747.553523</v>
+        <v>1637158004.985004</v>
       </c>
       <c r="G168" t="n">
-        <v>1633519749.255482</v>
+        <v>1637158006.847538</v>
       </c>
       <c r="H168" t="n">
-        <v>1400.625</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="N168" t="n">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="O168" t="b">
         <v>0</v>
@@ -12229,17 +12229,17 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1633519748.248814</v>
+        <v>1637158006.387015</v>
       </c>
       <c r="G169" t="n">
-        <v>1633519749.798187</v>
+        <v>1637158007.826499</v>
       </c>
       <c r="H169" t="n">
-        <v>1246.958333333333</v>
+        <v>1136.041666666667</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="N169" t="n">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="O169" t="b">
         <v>0</v>
@@ -12299,17 +12299,17 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1633519749.255482</v>
+        <v>1637158006.847538</v>
       </c>
       <c r="G170" t="n">
-        <v>1633519750.95847</v>
+        <v>1637158008.432967</v>
       </c>
       <c r="H170" t="n">
-        <v>1400.625</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>1</v>
       </c>
       <c r="N170" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="O170" t="b">
         <v>0</v>
@@ -12369,17 +12369,17 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1633519749.798187</v>
+        <v>1637158007.826499</v>
       </c>
       <c r="G171" t="n">
-        <v>1633519751.739514</v>
+        <v>1637158009.412913</v>
       </c>
       <c r="H171" t="n">
-        <v>1639.895833333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="N171" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="O171" t="b">
         <v>0</v>
@@ -12439,17 +12439,17 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1633519750.95847</v>
+        <v>1637158008.432967</v>
       </c>
       <c r="G172" t="n">
-        <v>1633519752.570442</v>
+        <v>1637158009.959288</v>
       </c>
       <c r="H172" t="n">
-        <v>1308.75</v>
+        <v>1223.1875</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="N172" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O172" t="b">
         <v>0</v>
@@ -12509,14 +12509,14 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1633519751.739514</v>
+        <v>1637158009.412913</v>
       </c>
       <c r="G173" t="n">
-        <v>1633519753.11556</v>
+        <v>1637158010.78703</v>
       </c>
       <c r="H173" t="n">
         <v>1072.666666666667</v>
@@ -12545,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="N173" t="n">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="O173" t="b">
         <v>0</v>
@@ -12579,17 +12579,17 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1633519752.570442</v>
+        <v>1637158009.959288</v>
       </c>
       <c r="G174" t="n">
-        <v>1633519753.919709</v>
+        <v>1637158011.485611</v>
       </c>
       <c r="H174" t="n">
-        <v>1045.729166666667</v>
+        <v>1223.1875</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="N174" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="O174" t="b">
         <v>0</v>
@@ -12649,17 +12649,17 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1633519753.11556</v>
+        <v>1637158010.78703</v>
       </c>
       <c r="G175" t="n">
-        <v>1633519754.860593</v>
+        <v>1637158012.720792</v>
       </c>
       <c r="H175" t="n">
-        <v>1441.833333333333</v>
+        <v>1630.395833333333</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>1</v>
       </c>
       <c r="N175" t="n">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="O175" t="b">
         <v>0</v>
@@ -12719,17 +12719,17 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1633519753.919709</v>
+        <v>1637158011.485611</v>
       </c>
       <c r="G176" t="n">
-        <v>1633519755.293312</v>
+        <v>1637158013.001098</v>
       </c>
       <c r="H176" t="n">
-        <v>1072.666666666667</v>
+        <v>1213.6875</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="N176" t="n">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="O176" t="b">
         <v>0</v>
@@ -12789,17 +12789,17 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1633519754.860593</v>
+        <v>1637158012.720792</v>
       </c>
       <c r="G177" t="n">
-        <v>1633519756.605323</v>
+        <v>1637158014.366451</v>
       </c>
       <c r="H177" t="n">
-        <v>1441.833333333333</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="N177" t="n">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="O177" t="b">
         <v>0</v>
@@ -12859,17 +12859,17 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1633519755.293312</v>
+        <v>1637158013.001098</v>
       </c>
       <c r="G178" t="n">
-        <v>1633519756.920823</v>
+        <v>1637158014.495512</v>
       </c>
       <c r="H178" t="n">
-        <v>1324.583333333333</v>
+        <v>1191.5</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>1</v>
       </c>
       <c r="N178" t="n">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="O178" t="b">
         <v>0</v>
@@ -12929,17 +12929,17 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1633519756.605323</v>
+        <v>1637158014.366451</v>
       </c>
       <c r="G179" t="n">
-        <v>1633519758.122571</v>
+        <v>1637158015.418699</v>
       </c>
       <c r="H179" t="n">
-        <v>1213.6875</v>
+        <v>749.4375</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="N179" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="O179" t="b">
         <v>0</v>
@@ -12999,17 +12999,17 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1633519756.920823</v>
+        <v>1637158014.495512</v>
       </c>
       <c r="G180" t="n">
-        <v>1633519758.610216</v>
+        <v>1637158016.082919</v>
       </c>
       <c r="H180" t="n">
-        <v>1387.958333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>1</v>
       </c>
       <c r="N180" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="O180" t="b">
         <v>0</v>
@@ -13069,17 +13069,17 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1633519758.122571</v>
+        <v>1637158015.418699</v>
       </c>
       <c r="G181" t="n">
-        <v>1633519759.616482</v>
+        <v>1637158016.470433</v>
       </c>
       <c r="H181" t="n">
-        <v>1191.5</v>
+        <v>749.4375</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="N181" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="O181" t="b">
         <v>0</v>
@@ -13139,17 +13139,17 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1633519758.610216</v>
+        <v>1637158016.082919</v>
       </c>
       <c r="G182" t="n">
-        <v>1633519760.256542</v>
+        <v>1637158017.967703</v>
       </c>
       <c r="H182" t="n">
-        <v>1343.604166666667</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="N182" t="n">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="O182" t="b">
         <v>0</v>
@@ -13209,17 +13209,17 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1633519759.616482</v>
+        <v>1637158016.470433</v>
       </c>
       <c r="G183" t="n">
-        <v>1633519761.663635</v>
+        <v>1637158018.245101</v>
       </c>
       <c r="H183" t="n">
-        <v>1744.458333333333</v>
+        <v>1470.354166666667</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="N183" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="O183" t="b">
         <v>0</v>
@@ -13279,17 +13279,17 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1633519760.256542</v>
+        <v>1637158017.967703</v>
       </c>
       <c r="G184" t="n">
-        <v>1633519761.902702</v>
+        <v>1637158019.852632</v>
       </c>
       <c r="H184" t="n">
-        <v>1343.604166666667</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="N184" t="n">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="O184" t="b">
         <v>0</v>
@@ -13349,17 +13349,17 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1633519761.663635</v>
+        <v>1637158018.245101</v>
       </c>
       <c r="G185" t="n">
-        <v>1633519763.579358</v>
+        <v>1637158020.168117</v>
       </c>
       <c r="H185" t="n">
-        <v>1612.9375</v>
+        <v>1620.875</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="N185" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="O185" t="b">
         <v>0</v>
@@ -13419,17 +13419,17 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1633519761.902702</v>
+        <v>1637158019.852632</v>
       </c>
       <c r="G186" t="n">
-        <v>1633519763.936123</v>
+        <v>1637158021.611619</v>
       </c>
       <c r="H186" t="n">
-        <v>1731.791666666667</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="N186" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="O186" t="b">
         <v>0</v>
@@ -13493,13 +13493,13 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1633519764.939998</v>
+        <v>1637158022.61581</v>
       </c>
       <c r="G187" t="n">
-        <v>1633519766.577559</v>
+        <v>1637158024.261744</v>
       </c>
       <c r="H187" t="n">
-        <v>1334.104166666667</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>1</v>
       </c>
       <c r="N187" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="O187" t="b">
         <v>0</v>
@@ -13563,13 +13563,13 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1633519764.936975</v>
+        <v>1637158022.612811</v>
       </c>
       <c r="G188" t="n">
-        <v>1633519766.605345</v>
+        <v>1637158024.528337</v>
       </c>
       <c r="H188" t="n">
-        <v>1365.791666666667</v>
+        <v>1612.9375</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="N188" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="O188" t="b">
         <v>0</v>
@@ -13633,13 +13633,13 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1633519766.577559</v>
+        <v>1637158024.261744</v>
       </c>
       <c r="G189" t="n">
-        <v>1633519768.104001</v>
+        <v>1637158025.90777</v>
       </c>
       <c r="H189" t="n">
-        <v>1223.1875</v>
+        <v>1343.604166666667</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>1</v>
       </c>
       <c r="N189" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="O189" t="b">
         <v>0</v>
@@ -13703,13 +13703,13 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1633519766.605345</v>
+        <v>1637158024.528337</v>
       </c>
       <c r="G190" t="n">
-        <v>1633519768.520542</v>
+        <v>1637158026.054067</v>
       </c>
       <c r="H190" t="n">
-        <v>1612.9375</v>
+        <v>1223.1875</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="N190" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="O190" t="b">
         <v>0</v>
@@ -13773,13 +13773,13 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1633519768.104001</v>
+        <v>1637158025.90777</v>
       </c>
       <c r="G191" t="n">
-        <v>1633519769.478758</v>
+        <v>1637158027.494524</v>
       </c>
       <c r="H191" t="n">
-        <v>1072.666666666667</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="N191" t="n">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="O191" t="b">
         <v>0</v>
@@ -13843,13 +13843,13 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1633519768.520542</v>
+        <v>1637158026.054067</v>
       </c>
       <c r="G192" t="n">
-        <v>1633519770.037151</v>
+        <v>1637158027.812825</v>
       </c>
       <c r="H192" t="n">
-        <v>1213.6875</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="N192" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O192" t="b">
         <v>0</v>
@@ -13913,13 +13913,13 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1633519769.478758</v>
+        <v>1637158027.494524</v>
       </c>
       <c r="G193" t="n">
-        <v>1633519770.853225</v>
+        <v>1637158028.967397</v>
       </c>
       <c r="H193" t="n">
-        <v>1072.666666666667</v>
+        <v>1170.916666666667</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="N193" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O193" t="b">
         <v>0</v>
@@ -13983,13 +13983,13 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1633519770.037151</v>
+        <v>1637158027.812825</v>
       </c>
       <c r="G194" t="n">
-        <v>1633519771.552472</v>
+        <v>1637158029.571695</v>
       </c>
       <c r="H194" t="n">
-        <v>1213.6875</v>
+        <v>1456.104166666667</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="N194" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O194" t="b">
         <v>0</v>
@@ -14053,13 +14053,13 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1633519770.853225</v>
+        <v>1637158028.967397</v>
       </c>
       <c r="G195" t="n">
-        <v>1633519772.439144</v>
+        <v>1637158031.000458</v>
       </c>
       <c r="H195" t="n">
-        <v>1283.395833333333</v>
+        <v>1731.791666666667</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="N195" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="O195" t="b">
         <v>0</v>
@@ -14123,13 +14123,13 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1633519771.552472</v>
+        <v>1637158029.571695</v>
       </c>
       <c r="G196" t="n">
-        <v>1633519773.124712</v>
+        <v>1637158031.458516</v>
       </c>
       <c r="H196" t="n">
-        <v>1269.125</v>
+        <v>1582.854166666667</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>1</v>
       </c>
       <c r="N196" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O196" t="b">
         <v>0</v>
@@ -14176,7 +14176,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -14189,17 +14189,17 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1633519772.439144</v>
+        <v>1637158031.458516</v>
       </c>
       <c r="G197" t="n">
-        <v>1633519773.828925</v>
+        <v>1637158032.834326</v>
       </c>
       <c r="H197" t="n">
-        <v>1086.916666666667</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="N197" t="n">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="O197" t="b">
         <v>0</v>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -14259,17 +14259,17 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1633519773.124712</v>
+        <v>1637158031.000458</v>
       </c>
       <c r="G198" t="n">
-        <v>1633519774.618036</v>
+        <v>1637158033.034345</v>
       </c>
       <c r="H198" t="n">
-        <v>1191.5</v>
+        <v>1731.791666666667</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="N198" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="O198" t="b">
         <v>0</v>
@@ -14333,13 +14333,13 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1633519773.828925</v>
+        <v>1637158033.034345</v>
       </c>
       <c r="G199" t="n">
-        <v>1633519775.218655</v>
+        <v>1637158034.646168</v>
       </c>
       <c r="H199" t="n">
-        <v>1086.916666666667</v>
+        <v>1308.75</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="N199" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O199" t="b">
         <v>0</v>
@@ -14403,13 +14403,13 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1633519774.618036</v>
+        <v>1637158032.834326</v>
       </c>
       <c r="G200" t="n">
-        <v>1633519776.46438</v>
+        <v>1637158034.696467</v>
       </c>
       <c r="H200" t="n">
-        <v>1543.25</v>
+        <v>1559.083333333333</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="N200" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O200" t="b">
         <v>0</v>
@@ -14456,7 +14456,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -14469,17 +14469,17 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1633519775.218655</v>
+        <v>1637158034.696467</v>
       </c>
       <c r="G201" t="n">
-        <v>1633519776.845349</v>
+        <v>1637158036.211469</v>
       </c>
       <c r="H201" t="n">
-        <v>1324.583333333333</v>
+        <v>1213.6875</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="N201" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="O201" t="b">
         <v>0</v>
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -14539,17 +14539,17 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1633519776.46438</v>
+        <v>1637158034.646168</v>
       </c>
       <c r="G202" t="n">
-        <v>1633519778.155341</v>
+        <v>1637158036.258731</v>
       </c>
       <c r="H202" t="n">
-        <v>1387.958333333333</v>
+        <v>1308.75</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="N202" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="O202" t="b">
         <v>0</v>
@@ -14613,13 +14613,13 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1633519776.845349</v>
+        <v>1637158036.258731</v>
       </c>
       <c r="G203" t="n">
-        <v>1633519778.548367</v>
+        <v>1637158037.698529</v>
       </c>
       <c r="H203" t="n">
-        <v>1400.625</v>
+        <v>1136.041666666667</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>1</v>
       </c>
       <c r="N203" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="O203" t="b">
         <v>0</v>
@@ -14683,10 +14683,10 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1633519778.155341</v>
+        <v>1637158036.211469</v>
       </c>
       <c r="G204" t="n">
-        <v>1633519779.8453</v>
+        <v>1637158037.902367</v>
       </c>
       <c r="H204" t="n">
         <v>1387.958333333333</v>
@@ -14715,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="N204" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O204" t="b">
         <v>0</v>
@@ -14753,13 +14753,13 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1633519778.548367</v>
+        <v>1637158037.698529</v>
       </c>
       <c r="G205" t="n">
-        <v>1633519779.897519</v>
+        <v>1637158039.073041</v>
       </c>
       <c r="H205" t="n">
-        <v>1045.729166666667</v>
+        <v>1072.666666666667</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>1</v>
       </c>
       <c r="N205" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O205" t="b">
         <v>0</v>
@@ -14823,13 +14823,13 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1633519779.8453</v>
+        <v>1637158037.902367</v>
       </c>
       <c r="G206" t="n">
-        <v>1633519781.893251</v>
+        <v>1637158039.594112</v>
       </c>
       <c r="H206" t="n">
-        <v>1744.458333333333</v>
+        <v>1387.958333333333</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>1</v>
       </c>
       <c r="N206" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="O206" t="b">
         <v>0</v>
@@ -14893,13 +14893,13 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1633519779.897519</v>
+        <v>1637158039.073041</v>
       </c>
       <c r="G207" t="n">
-        <v>1633519781.932618</v>
+        <v>1637158040.988036</v>
       </c>
       <c r="H207" t="n">
-        <v>1731.791666666667</v>
+        <v>1612.9375</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="N207" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="O207" t="b">
         <v>0</v>
@@ -14946,11 +14946,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14959,17 +14959,17 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1633519781.932618</v>
+        <v>1637158039.594112</v>
       </c>
       <c r="G208" t="n">
-        <v>1633519783.795291</v>
+        <v>1637158041.324301</v>
       </c>
       <c r="H208" t="n">
-        <v>1559.083333333333</v>
+        <v>1427.583333333333</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>1</v>
       </c>
       <c r="N208" t="n">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="O208" t="b">
         <v>0</v>
@@ -15016,11 +15016,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15029,17 +15029,17 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1633519781.893251</v>
+        <v>1637158040.988036</v>
       </c>
       <c r="G209" t="n">
-        <v>1633519783.940698</v>
+        <v>1637158042.615736</v>
       </c>
       <c r="H209" t="n">
-        <v>1744.458333333333</v>
+        <v>1324.583333333333</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>1</v>
       </c>
       <c r="N209" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="O209" t="b">
         <v>0</v>
@@ -15103,13 +15103,13 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1633519783.940698</v>
+        <v>1637158041.324301</v>
       </c>
       <c r="G210" t="n">
-        <v>1633519785.49037</v>
+        <v>1637158042.910267</v>
       </c>
       <c r="H210" t="n">
-        <v>1246.958333333333</v>
+        <v>1283.395833333333</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="N210" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="O210" t="b">
         <v>0</v>
